--- a/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
+++ b/InputData/ccs/CPbE/CCS Percentages by Entity.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\ccs\CPbE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\ccs\CPbE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA0D75-DE66-4BAB-AD37-1B171A815AAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21072" windowHeight="13356"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data OECD" sheetId="2" r:id="rId2"/>
-    <sheet name="Data Non-OECD" sheetId="6" r:id="rId3"/>
+    <sheet name="Data OECD" sheetId="7" r:id="rId2"/>
+    <sheet name="Data NonOECD" sheetId="8" r:id="rId3"/>
     <sheet name="CPbE-FoCSbS" sheetId="4" r:id="rId4"/>
     <sheet name="CPbE-FoESCbES" sheetId="5" r:id="rId5"/>
     <sheet name="CPbE-PoICbI" sheetId="3" r:id="rId6"/>
@@ -22,54 +23,20 @@
   <definedNames>
     <definedName name="Region">About!$B$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
-  <si>
-    <t>About:</t>
-  </si>
-  <si>
-    <t>This is a portion of Figure 4 on Page 22.  It shows the breakdown of CCS by industry within the OECD.</t>
-  </si>
-  <si>
-    <t>The report only has this information as a graph, not in numbers.  Fortunately, the graph is vector-based, so it is</t>
-  </si>
-  <si>
-    <t>possible to zoom in substantially, take a screenshot, and measure using a pixel ruler program.</t>
-  </si>
-  <si>
-    <t>Refining (red)</t>
-  </si>
-  <si>
-    <t>Gas processing (light blue)</t>
-  </si>
-  <si>
-    <t>Chemicals (dark blue)</t>
-  </si>
-  <si>
-    <t>Gas power (purple)</t>
-  </si>
-  <si>
-    <t>Cement (orange)</t>
-  </si>
-  <si>
-    <t>Iron and steel (turquoise)</t>
-  </si>
-  <si>
-    <t>Bioenergy (green)</t>
-  </si>
-  <si>
-    <t>Coal power (gray)</t>
-  </si>
-  <si>
-    <t>See key to the colors and measurement results below.</t>
-  </si>
-  <si>
-    <t>Pixels</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>Source:</t>
   </si>
@@ -77,15 +44,6 @@
     <t>International Energy Agency</t>
   </si>
   <si>
-    <t>Technology Roadmap: Carbon capture and storage</t>
-  </si>
-  <si>
-    <t>http://www.iea.org/publications/freepublications/publication/TechnologyRoadmapCarbonCaptureandStorage.pdf</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>cement and other carbonates</t>
   </si>
   <si>
@@ -107,15 +65,9 @@
     <t>other industries</t>
   </si>
   <si>
-    <t>Read from figure</t>
-  </si>
-  <si>
     <t>Mapped onto model industry categories</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>By Model Sector</t>
   </si>
   <si>
@@ -137,12 +89,6 @@
     <t>biomass</t>
   </si>
   <si>
-    <t>We determine the fractions by industry and by electricity source by measuring the IEA's figure (see the "Data" tab).</t>
-  </si>
-  <si>
-    <t>Since we have no data for prior to 2020, we assume the values 2020 apply to 2013-2019.</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -209,18 +155,9 @@
     <t>than lignite, we assume all coal CCS refers to hard coal rather than lignite.</t>
   </si>
   <si>
-    <t>This is a portion of Figure 4 on Page 22.  It shows the breakdown of CCS by industry within the non-OECD.</t>
-  </si>
-  <si>
-    <t>This gives us results for 2020, 2030, and 2050.</t>
-  </si>
-  <si>
     <t>We linearly interpolate to obtain remaining years.</t>
   </si>
   <si>
-    <t>Page 22, Figure 4, right-hand side, OECD and Non-OECD sections</t>
-  </si>
-  <si>
     <t>This variable includes both OECD and Non-OECD data.  Use the following selector to</t>
   </si>
   <si>
@@ -240,17 +177,123 @@
   </si>
   <si>
     <t>OECD</t>
+  </si>
+  <si>
+    <t>Energy Technology Perspectives 2017 - Catalysing Energy Technology Transformations</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/etp2017/</t>
+  </si>
+  <si>
+    <t>ETP 2017 scenario summary (OECD and NonOECD tabs), Figure 8-4 downloadable data, Figure 8-6 downloadable data</t>
+  </si>
+  <si>
+    <t>We determine the fraction of CCS by industry and by electricity source by IEA data from multiple tables in the ETP 2017.</t>
+  </si>
+  <si>
+    <t>This gives us results for 2025 through 2050 in 5 year increments for power/industry split and industry category,</t>
+  </si>
+  <si>
+    <t>and from 2020 to 2050 in 10 year increments for power category.</t>
+  </si>
+  <si>
+    <t>Since we have no data for prior to 2025 or 2020 (depending on the variable), we assume those values apply prior to 2025 or 2020.</t>
+  </si>
+  <si>
+    <t>IEA provides the necessary data for three different scenarios: Reference, 2 degree, and Beyond 2 degrees.</t>
+  </si>
+  <si>
+    <t>We take the fraction of CCS data from the 2 degree scenario in an attempt to represent a mid-point.</t>
+  </si>
+  <si>
+    <t>Based on the ETP 2017 report "CCS on fuel production and transformation" section starting on page 372, we assume</t>
+  </si>
+  <si>
+    <t>the "Other Transformation" category refers primarily to natural gas production, which we assign to the natural gas</t>
+  </si>
+  <si>
+    <t>and petroleum systems industry category.</t>
+  </si>
+  <si>
+    <t>ETP 2017 data sheet, OECD tab</t>
+  </si>
+  <si>
+    <t>CO2 captured (Mt CO2)</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Other transformation</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ETP 2017 figure 8_04 data</t>
+  </si>
+  <si>
+    <t>Coal with CCS</t>
+  </si>
+  <si>
+    <t>Natural gas with CCS</t>
+  </si>
+  <si>
+    <t>Biomass with CCS</t>
+  </si>
+  <si>
+    <t>ETP 2017 figure 8_07 data</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>LEFT graph</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Pulp and paper</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>CCS Fraction by Energy Source (dimensionless)</t>
+  </si>
+  <si>
+    <t>CCS Fraction by Industry (dimensionless)</t>
+  </si>
+  <si>
+    <t>CCS Fraction by Sector (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,19 +331,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -311,6 +399,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,29 +444,56 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -384,104 +511,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>280167</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="6124575"/>
-          <a:ext cx="9218427" cy="7772400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>23482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="5697855"/>
-          <a:ext cx="7924800" cy="7858747"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,6 +589,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -595,6 +641,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,161 +833,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="C17" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{3FA594FA-5A85-41C3-A576-AA1EC08F995A}">
       <formula1>$C$16:$C$17</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{13B0AC82-2685-479C-87D1-5D1EE1B8A203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -932,1177 +1027,1842 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3EB577-5C20-4735-BBE1-8CD13DC5BEA4}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2045</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <f t="shared" ref="B3:G3" si="0">D23/D25</f>
+        <v>0.21803644250297027</v>
+      </c>
+      <c r="C3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.45387106293645746</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.57375467270212188</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.59382245522742239</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60434543955945319</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56028199067132201</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <f>SUM(D22,D24)/D25</f>
+        <v>0.78196355749702962</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4" si="1">SUM(E22,E24)/E25</f>
+        <v>0.54612893706354271</v>
+      </c>
+      <c r="D4" s="15">
+        <f>SUM(F22,F24)/F25</f>
+        <v>0.42624532729787801</v>
+      </c>
+      <c r="E4" s="15">
+        <f>SUM(G22,G24)/G25</f>
+        <v>0.40617754477257761</v>
+      </c>
+      <c r="F4" s="15">
+        <f>SUM(H22,H24)/H25</f>
+        <v>0.39565456044054664</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(I22,I24)/I25</f>
+        <v>0.43971800932867816</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2035</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2040</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2045</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2050</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B8" s="5">
+        <f>E39/SUM(E39:E42,D24/1000)</f>
+        <v>0.29305349924260793</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:G8" si="2">F39/SUM(F39:F42,E24/1000)</f>
+        <v>0.33275814655315439</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27778376598364735</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.32736698959883581</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35934243065340959</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.38367083769308907</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="B9" s="15">
+        <f>(D24/1000)/SUM(E39:E42,D24/1000)</f>
+        <v>8.8852453196402434E-2</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:G9" si="3">(E24/1000)/SUM(F39:F42,E24/1000)</f>
+        <v>0.11760289017955526</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16029232107960878</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17273948243196502</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.19873531530551919</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.21792159249022533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <f>E40/SUM(E39:E42,D24/1000)</f>
+        <v>2.4929787372755252E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:G10" si="4">F40/SUM(F39:F42,E24/1000)</f>
+        <v>0.16235589840065001</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.28012369548232957</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.29779009961409042</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.28793480415473521</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.25804018454667765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15">
+        <f>E41/SUM(E39:E42,D24/1000)</f>
+        <v>0.60906693840985171</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:G11" si="5">F41/SUM(F39:F42,E24/1000)</f>
+        <v>0.38103420834619267</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.27591691183820882</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.1994127226137235</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.15396517468671694</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.14036492570317538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>2020</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C14" s="1">
         <v>2030</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D14" s="1">
+        <v>2040</v>
+      </c>
+      <c r="E14" s="14">
         <v>2050</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <f>B31/SUM(B31:B33)</f>
+        <v>0.99031037400420396</v>
+      </c>
+      <c r="C15" s="15">
+        <f>C31/SUM(C31:C33)</f>
+        <v>0.38683189211801422</v>
+      </c>
+      <c r="D15" s="15">
+        <f>D31/SUM(D31:D33)</f>
+        <v>0.35477104291503592</v>
+      </c>
+      <c r="E15" s="15">
+        <f>E31/SUM(E31:E33)</f>
+        <v>0.28108145583275146</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <f>B32/SUM(B31:B33)</f>
+        <v>9.6896259957961056E-3</v>
+      </c>
+      <c r="C16" s="15">
+        <f>C32/SUM(C31:C33)</f>
+        <v>0.59862093333506916</v>
+      </c>
+      <c r="D16" s="15">
+        <f>D32/SUM(D31:D33)</f>
+        <v>0.57372188670355717</v>
+      </c>
+      <c r="E16" s="15">
+        <f>E32/SUM(E31:E33)</f>
+        <v>0.43585744423879202</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <f>B33/SUM(B31:B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <f>C33/SUM(C31:C33)</f>
+        <v>1.4547174546916692E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <f>D33/SUM(D31:D33)</f>
+        <v>7.1507070381406954E-2</v>
+      </c>
+      <c r="E17" s="15">
+        <f>E33/SUM(E31:E33)</f>
+        <v>0.28306109992845646</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2025</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2030</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2040</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2045</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2050</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2055</v>
+      </c>
+      <c r="K21" s="18">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>32.40429913151911</v>
+      </c>
+      <c r="E22" s="19">
+        <v>93.876808800194539</v>
+      </c>
+      <c r="F22" s="19">
+        <v>151.71633290315154</v>
+      </c>
+      <c r="G22" s="19">
+        <v>187.21216357345642</v>
+      </c>
+      <c r="H22" s="19">
+        <v>237.97861280972978</v>
+      </c>
+      <c r="I22" s="19">
+        <v>268.62433402842748</v>
+      </c>
+      <c r="J22" s="19">
+        <v>301.62694877193803</v>
+      </c>
+      <c r="K22" s="19">
+        <v>338.82942754525209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>16.985652732884223</v>
+      </c>
+      <c r="E23" s="19">
+        <v>136.39566547228313</v>
+      </c>
+      <c r="F23" s="19">
+        <v>386.88874151414149</v>
+      </c>
+      <c r="G23" s="19">
+        <v>571.47749466737059</v>
+      </c>
+      <c r="H23" s="19">
+        <v>803.61468594996381</v>
+      </c>
+      <c r="I23" s="19">
+        <v>817.9399604957988</v>
+      </c>
+      <c r="J23" s="19">
+        <v>895.52328791931473</v>
+      </c>
+      <c r="K23" s="19">
+        <v>858.4271853516816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>28.512863545240073</v>
+      </c>
+      <c r="E24" s="19">
+        <v>70.243854285306412</v>
+      </c>
+      <c r="F24" s="19">
+        <v>135.70532325157922</v>
+      </c>
+      <c r="G24" s="19">
+        <v>203.68131583846389</v>
+      </c>
+      <c r="H24" s="19">
+        <v>288.13409446059916</v>
+      </c>
+      <c r="I24" s="19">
+        <v>373.30765230696636</v>
+      </c>
+      <c r="J24" s="19">
+        <v>469.46789166999571</v>
+      </c>
+      <c r="K24" s="19">
+        <v>556.22745588473765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>77.902815409643409</v>
+      </c>
+      <c r="E25" s="22">
+        <v>300.51632855778405</v>
+      </c>
+      <c r="F25" s="22">
+        <v>674.31039766887227</v>
+      </c>
+      <c r="G25" s="22">
+        <v>962.37097407929093</v>
+      </c>
+      <c r="H25" s="22">
+        <v>1329.7273932202929</v>
+      </c>
+      <c r="I25" s="22">
+        <v>1459.8719468311924</v>
+      </c>
+      <c r="J25" s="22">
+        <v>1666.6181283612484</v>
+      </c>
+      <c r="K25" s="22">
+        <v>1753.4840687816713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="24">
         <v>2020</v>
       </c>
-      <c r="I8" s="1">
+      <c r="C30" s="24">
         <v>2030</v>
       </c>
-      <c r="J8" s="1">
+      <c r="D30" s="24">
+        <v>2040</v>
+      </c>
+      <c r="E30" s="24">
         <v>2050</v>
       </c>
-      <c r="K8" s="4">
+      <c r="F30" s="24">
+        <v>2060</v>
+      </c>
+      <c r="G30" s="24">
         <v>2020</v>
       </c>
-      <c r="L8" s="4">
+      <c r="H30" s="24">
         <v>2030</v>
       </c>
-      <c r="M8" s="4">
+      <c r="I30" s="24">
+        <v>2040</v>
+      </c>
+      <c r="J30" s="24">
         <v>2050</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <f>C13</f>
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:J9" si="0">D13</f>
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K9" s="10">
-        <f>H9/SUM(H$9:H$12)</f>
-        <v>1.8867924528301886E-2</v>
-      </c>
-      <c r="L9" s="10">
-        <f>I9/SUM(I$9:I$12)</f>
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="M9" s="10">
-        <f>J9/SUM(J$9:J$12)</f>
-        <v>0.18072289156626506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>155</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <f>C9+C10</f>
-        <v>182</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:J10" si="1">D9+D10</f>
-        <v>30</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="K10" s="10">
-        <f>H10/SUM(H$9:H$12)</f>
-        <v>0.68679245283018864</v>
-      </c>
-      <c r="L10" s="10">
-        <f>I10/SUM(I$9:I$12)</f>
-        <v>0.32608695652173914</v>
-      </c>
-      <c r="M10" s="10">
-        <f>J10/SUM(J$9:J$12)</f>
-        <v>0.20481927710843373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <f>C14</f>
-        <v>32</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ref="I11:J11" si="2">D14</f>
-        <v>31</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K11" s="10">
-        <f>H11/SUM(H$9:H$12)</f>
-        <v>0.12075471698113208</v>
-      </c>
-      <c r="L11" s="10">
-        <f>I11/SUM(I$9:I$12)</f>
-        <v>0.33695652173913043</v>
-      </c>
-      <c r="M11" s="10">
-        <f>J11/SUM(J$9:J$12)</f>
-        <v>0.42168674698795183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <f>C11</f>
-        <v>46</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:J12" si="3">D11</f>
-        <v>21</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K12" s="10">
-        <f>H12/SUM(H$9:H$12)</f>
-        <v>0.17358490566037735</v>
-      </c>
-      <c r="L12" s="10">
-        <f>I12/SUM(I$9:I$12)</f>
-        <v>0.22826086956521738</v>
-      </c>
-      <c r="M12" s="10">
-        <f>J12/SUM(J$9:J$12)</f>
-        <v>0.19277108433734941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>31</v>
-      </c>
-      <c r="E14" s="7">
-        <v>35</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>53</v>
-      </c>
-      <c r="D15">
+      <c r="K30" s="24">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="27">
+        <v>9.0692000334624094E-3</v>
+      </c>
+      <c r="C31" s="27">
+        <v>5.1350318772354832E-2</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.31707111991587944</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0.43250423067250798</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.30164318885759717</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.25314566757024587</v>
+      </c>
+      <c r="I31" s="27">
+        <v>1.6159505949355208</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1.3631258357215936</v>
+      </c>
+      <c r="K31" s="27">
+        <v>1.1836798147928469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="27">
+        <v>8.8736984598062219E-5</v>
+      </c>
+      <c r="C32" s="27">
+        <v>7.9464429838640188E-2</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.51275504235816094</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.67066035375720856</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.29118624343037608</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
+        <v>7.2967083539768385E-2</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.51828833623970194</v>
+      </c>
+      <c r="J32" s="27">
+        <v>1.0630754575373591</v>
+      </c>
+      <c r="K32" s="27">
+        <v>1.7581577119173859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="27">
+        <v>0</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1.9310766910432609E-3</v>
+      </c>
+      <c r="D33" s="27">
+        <v>6.3908335644987324E-2</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.43555033858482695</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0.83998846288335016</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27">
+        <v>1.0989011883988391E-2</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0.18918889400984115</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.73816487009111909</v>
+      </c>
+      <c r="K33" s="27">
+        <v>1.3736678542573124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="7">
-        <v>85</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>328</v>
-      </c>
-      <c r="D16">
-        <v>238</v>
-      </c>
-      <c r="E16" s="7">
-        <v>133</v>
-      </c>
-      <c r="H16" s="1">
+    </row>
+    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26">
+        <v>2014</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2015</v>
+      </c>
+      <c r="D38" s="26">
         <v>2020</v>
       </c>
-      <c r="I16" s="1">
+      <c r="E38" s="26">
+        <v>2025</v>
+      </c>
+      <c r="F38" s="26">
         <v>2030</v>
       </c>
-      <c r="J16" s="1">
+      <c r="G38" s="26">
+        <v>2035</v>
+      </c>
+      <c r="H38" s="26">
+        <v>2040</v>
+      </c>
+      <c r="I38" s="26">
+        <v>2045</v>
+      </c>
+      <c r="J38" s="26">
         <v>2050</v>
       </c>
-      <c r="K16" s="4">
-        <v>2020</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M16" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <f>SUM(C12,C15:C16)</f>
-        <v>417</v>
-      </c>
-      <c r="I17">
-        <f>SUM(D12,D15:D16)</f>
-        <v>356</v>
-      </c>
-      <c r="J17">
-        <f>SUM(E12,E15:E16)</f>
-        <v>272</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" ref="K17:M18" si="4">H17/SUM(H$17:H$18)</f>
-        <v>0.6415384615384615</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="4"/>
-        <v>0.8537170263788969</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="4"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18">
-        <f>SUM(C9:C11,C13)</f>
-        <v>233</v>
-      </c>
-      <c r="I18">
-        <f>SUM(D9:D11,D13)</f>
-        <v>61</v>
-      </c>
-      <c r="J18">
-        <f>SUM(E9:E11,E13)</f>
-        <v>48</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.35846153846153844</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14628297362110312</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="20" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2030</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2050</v>
-      </c>
-      <c r="K22" s="4">
-        <v>2020</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="23" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23">
-        <f>C16</f>
-        <v>328</v>
-      </c>
-      <c r="I23">
-        <f>D16</f>
-        <v>238</v>
-      </c>
-      <c r="J23">
-        <f>E16</f>
-        <v>133</v>
-      </c>
-      <c r="K23" s="6">
-        <f>H23/SUM(H$23:H$25)</f>
-        <v>0.78657074340527577</v>
-      </c>
-      <c r="L23" s="6">
-        <f>I23/SUM(I$23:I$25)</f>
-        <v>0.6685393258426966</v>
-      </c>
-      <c r="M23" s="6">
-        <f>J23/SUM(J$23:J$25)</f>
-        <v>0.4889705882352941</v>
-      </c>
-    </row>
-    <row r="24" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24">
-        <f>C12</f>
-        <v>36</v>
-      </c>
-      <c r="I24">
-        <f>D12</f>
-        <v>49</v>
-      </c>
-      <c r="J24">
-        <f>E12</f>
-        <v>54</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" ref="K24:M25" si="5">H24/SUM(H$23:H$25)</f>
-        <v>8.6330935251798566E-2</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="5"/>
-        <v>0.13764044943820225</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="5"/>
-        <v>0.19852941176470587</v>
-      </c>
-    </row>
-    <row r="25" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25">
-        <f>C15</f>
-        <v>53</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25:J25" si="6">D15</f>
-        <v>69</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="5"/>
-        <v>0.12709832134292565</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="5"/>
-        <v>0.19382022471910113</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="5"/>
-        <v>0.3125</v>
+      <c r="K38" s="26">
+        <v>2055</v>
+      </c>
+      <c r="L38" s="26">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
+        <v>9.4041235044908286E-2</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0.19875544489630168</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0.23517493229217079</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0.38600636209402522</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0.52098845994441834</v>
+      </c>
+      <c r="J39" s="31">
+        <v>0.65724216697011595</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0.65648081566706651</v>
+      </c>
+      <c r="L39" s="31">
+        <v>0.74110405537417889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
+      <c r="D40" s="31">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E40" s="31">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F40" s="31">
+        <v>9.6974692137267671E-2</v>
+      </c>
+      <c r="G40" s="31">
+        <v>0.23715594352755537</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0.3511315333305714</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0.41745893995374145</v>
+      </c>
+      <c r="J40" s="31">
+        <v>0.44203226671215384</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0.46148047621402866</v>
+      </c>
+      <c r="L40" s="31">
+        <v>0.50590832725411927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0</v>
+      </c>
+      <c r="D41" s="31">
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.19545034357588661</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0.22759059210128213</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0.23359443209375855</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.23513238065241418</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0.22322462476598964</v>
+      </c>
+      <c r="J41" s="31">
+        <v>0.24045024764053377</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0.27864135643363158</v>
+      </c>
+      <c r="L41" s="31">
+        <v>0.28914007666781549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1.5376939060841825E-4</v>
+      </c>
+      <c r="E42" s="31">
+        <v>2.0968106357788581E-3</v>
+      </c>
+      <c r="F42" s="31">
+        <v>3.7324232950562601E-3</v>
+      </c>
+      <c r="G42" s="31">
+        <v>4.980874224401988E-3</v>
+      </c>
+      <c r="H42" s="31">
+        <v>3.1726764386671349E-3</v>
+      </c>
+      <c r="I42" s="31">
+        <v>3.2295440099746402E-5</v>
+      </c>
+      <c r="J42" s="31">
+        <v>4.2133278740787309E-6</v>
+      </c>
+      <c r="K42" s="31">
+        <v>2.8577172778101513E-5</v>
+      </c>
+      <c r="L42" s="31">
+        <v>7.283691725614275E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8856BB8-8211-4F0C-8FD9-6F7956E72118}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2045</v>
+      </c>
+      <c r="G2" s="14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <f t="shared" ref="B3:G3" si="0">D23/D25</f>
+        <v>4.4936433006002231E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.18309937593197775</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.33562779707770829</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41029460344152446</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43562759311159638</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" si="0"/>
+        <v>0.37730512812328371</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <f>SUM(D22,D24)/D25</f>
+        <v>0.95506356699399775</v>
+      </c>
+      <c r="C4" s="15">
+        <f t="shared" ref="C4" si="1">SUM(E22,E24)/E25</f>
+        <v>0.81690062406802222</v>
+      </c>
+      <c r="D4" s="15">
+        <f>SUM(F22,F24)/F25</f>
+        <v>0.66437220292229171</v>
+      </c>
+      <c r="E4" s="15">
+        <f>SUM(G22,G24)/G25</f>
+        <v>0.58970539655847543</v>
+      </c>
+      <c r="F4" s="15">
+        <f>SUM(H22,H24)/H25</f>
+        <v>0.56437240688840373</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(I22,I24)/I25</f>
+        <v>0.62269487187671635</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2035</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2040</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2045</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2050</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <f>E39/SUM(E39:E42,D24/1000)</f>
+        <v>0.29900648346859349</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:G8" si="2">F39/SUM(F39:F42,E24/1000)</f>
+        <v>0.30366522968423609</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2325252012134289</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23905776935811326</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2459021549943784</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2585937965046165</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15">
+        <f>(D24/1000)/SUM(E39:E42,D24/1000)</f>
+        <v>7.0343727016078286E-2</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" ref="C9:G9" si="3">(E24/1000)/SUM(F39:F42,E24/1000)</f>
+        <v>0.19475053037197726</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.29710364351198437</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39589799738148052</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.45168536782870344</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="3"/>
+        <v>0.47287986290994544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <f>E40/SUM(E39:E42,D24/1000)</f>
+        <v>2.5436202178825617E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:G10" si="4">F40/SUM(F39:F42,E24/1000)</f>
+        <v>0.14816118459942337</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.23448389226788868</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.21745942386528264</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.19703709553805757</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17391885026730866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15">
+        <f>E41/SUM(E39:E42,D24/1000)</f>
+        <v>0.62143930688964777</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:G11" si="5">F41/SUM(F39:F42,E24/1000)</f>
+        <v>0.34772053394796387</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.23096250861234377</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.14561993775879004</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="5"/>
+        <v>0.10536013846376642</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="5"/>
+        <v>9.4605832572315834E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2030</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2040</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2050</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15">
+        <f>G31</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:E17" si="6">H31/SUM(H31:H33)</f>
+        <v>0.75094732617802884</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="6"/>
+        <v>0.69550281589091678</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="6"/>
+        <v>0.43077373646242967</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15">
+        <f t="shared" ref="B16:B17" si="7">G32</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" si="6"/>
+        <v>0.86911001722361103</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="6"/>
+        <v>0.73258659654232261</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="6"/>
+        <v>0.59019079310588696</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2025</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2030</v>
+      </c>
+      <c r="F21" s="18">
+        <v>2035</v>
+      </c>
+      <c r="G21" s="18">
+        <v>2040</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2045</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2050</v>
+      </c>
+      <c r="J21" s="18">
+        <v>2055</v>
+      </c>
+      <c r="K21" s="18">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>617.46579618378519</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1081.7934339086667</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1514.8251281587777</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1927.6720378022803</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2198.1141550802454</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2676.6122372335317</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2950.0831196290765</v>
+      </c>
+      <c r="K22" s="19">
+        <v>3224.4254691476872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>30.093162117441675</v>
+      </c>
+      <c r="E23" s="19">
+        <v>271.04287232984956</v>
+      </c>
+      <c r="F23" s="19">
+        <v>917.06120698826567</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1785.9710678442866</v>
+      </c>
+      <c r="H23" s="19">
+        <v>2435.3512473822343</v>
+      </c>
+      <c r="I23" s="19">
+        <v>2350.0625653690722</v>
+      </c>
+      <c r="J23" s="19">
+        <v>2648.502745099659</v>
+      </c>
+      <c r="K23" s="19">
+        <v>3279.952284652592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>22.123971659459748</v>
+      </c>
+      <c r="E24" s="19">
+        <v>127.4684241858147</v>
+      </c>
+      <c r="F24" s="19">
+        <v>300.48927549386389</v>
+      </c>
+      <c r="G24" s="19">
+        <v>639.25613520056368</v>
+      </c>
+      <c r="H24" s="19">
+        <v>956.97764084208234</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1201.8717773452677</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1637.288722767227</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1812.7160215516324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>669.68292996068658</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1480.304730424331</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2732.3756106409073</v>
+      </c>
+      <c r="G25" s="22">
+        <v>4352.8992408471313</v>
+      </c>
+      <c r="H25" s="22">
+        <v>5590.4430433045618</v>
+      </c>
+      <c r="I25" s="22">
+        <v>6228.5465799478716</v>
+      </c>
+      <c r="J25" s="22">
+        <v>7235.8745874959623</v>
+      </c>
+      <c r="K25" s="22">
+        <v>8317.093775351912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="24">
         <v>2020</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C30" s="24">
         <v>2030</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D30" s="24">
+        <v>2040</v>
+      </c>
+      <c r="E30" s="24">
+        <v>2050</v>
+      </c>
+      <c r="F30" s="24">
+        <v>2060</v>
+      </c>
+      <c r="G30" s="24">
+        <v>2020</v>
+      </c>
+      <c r="H30" s="24">
         <v>2030</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1">
+      <c r="I30" s="24">
+        <v>2040</v>
+      </c>
+      <c r="J30" s="24">
+        <v>2050</v>
+      </c>
+      <c r="K30" s="24">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="27">
+        <v>9.0692000334624094E-3</v>
+      </c>
+      <c r="C31" s="27">
+        <v>5.1350318772354832E-2</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.31707111991587944</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0.43250423067250798</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.30164318885759717</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.25314566757024587</v>
+      </c>
+      <c r="I31" s="27">
+        <v>1.6159505949355208</v>
+      </c>
+      <c r="J31" s="27">
+        <v>1.3631258357215936</v>
+      </c>
+      <c r="K31" s="27">
+        <v>1.1836798147928469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="27">
+        <v>8.8736984598062219E-5</v>
+      </c>
+      <c r="C32" s="27">
+        <v>7.9464429838640188E-2</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.51275504235816094</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.67066035375720856</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.29118624343037608</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
+        <v>7.2967083539768385E-2</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0.51828833623970194</v>
+      </c>
+      <c r="J32" s="27">
+        <v>1.0630754575373591</v>
+      </c>
+      <c r="K32" s="27">
+        <v>1.7581577119173859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="27">
+        <v>0</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1.9310766910432609E-3</v>
+      </c>
+      <c r="D33" s="27">
+        <v>6.3908335644987324E-2</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0.43555033858482695</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0.83998846288335016</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27">
+        <v>1.0989011883988391E-2</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0.18918889400984115</v>
+      </c>
+      <c r="J33" s="27">
+        <v>0.73816487009111909</v>
+      </c>
+      <c r="K33" s="27">
+        <v>1.3736678542573124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26">
+        <v>2014</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2015</v>
+      </c>
+      <c r="D38" s="26">
         <v>2020</v>
       </c>
-      <c r="I8" s="1">
+      <c r="E38" s="26">
+        <v>2025</v>
+      </c>
+      <c r="F38" s="26">
         <v>2030</v>
       </c>
-      <c r="J8" s="1">
+      <c r="G38" s="26">
+        <v>2035</v>
+      </c>
+      <c r="H38" s="26">
+        <v>2040</v>
+      </c>
+      <c r="I38" s="26">
+        <v>2045</v>
+      </c>
+      <c r="J38" s="26">
         <v>2050</v>
       </c>
-      <c r="K8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="L8" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <f>C13</f>
-        <v>78</v>
-      </c>
-      <c r="I9">
-        <f>D13</f>
-        <v>69</v>
-      </c>
-      <c r="J9">
-        <f>E13</f>
-        <v>94</v>
-      </c>
-      <c r="K9" s="10">
-        <f>H9/SUM(H$9:H$12)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L9" s="10">
-        <f>I9/SUM(I$9:I$12)</f>
-        <v>0.21904761904761905</v>
-      </c>
-      <c r="M9" s="10">
-        <f>J9/SUM(J$9:J$12)</f>
-        <v>0.27647058823529413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <f>C9+C10</f>
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <f>D9+D10</f>
-        <v>44</v>
-      </c>
-      <c r="J10">
-        <f>E9+E10</f>
-        <v>59</v>
-      </c>
-      <c r="K10" s="10">
-        <f>H10/SUM(H$9:H$12)</f>
-        <v>5.4945054945054944E-2</v>
-      </c>
-      <c r="L10" s="10">
-        <f>I10/SUM(I$9:I$12)</f>
-        <v>0.13968253968253969</v>
-      </c>
-      <c r="M10" s="10">
-        <f>J10/SUM(J$9:J$12)</f>
-        <v>0.17352941176470588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>285</v>
-      </c>
-      <c r="D11" s="7">
-        <v>94</v>
-      </c>
-      <c r="E11" s="7">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <f>C14</f>
-        <v>153</v>
-      </c>
-      <c r="I11">
-        <f>D14</f>
-        <v>108</v>
-      </c>
-      <c r="J11">
-        <f>E14</f>
-        <v>118</v>
-      </c>
-      <c r="K11" s="10">
-        <f>H11/SUM(H$9:H$12)</f>
-        <v>0.28021978021978022</v>
-      </c>
-      <c r="L11" s="10">
-        <f>I11/SUM(I$9:I$12)</f>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="M11" s="10">
-        <f>J11/SUM(J$9:J$12)</f>
-        <v>0.34705882352941175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7">
-        <v>44</v>
-      </c>
-      <c r="E12" s="7">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <f>C11</f>
-        <v>285</v>
-      </c>
-      <c r="I12">
-        <f>D11</f>
-        <v>94</v>
-      </c>
-      <c r="J12">
-        <f>E11</f>
-        <v>69</v>
-      </c>
-      <c r="K12" s="10">
-        <f>H12/SUM(H$9:H$12)</f>
-        <v>0.52197802197802201</v>
-      </c>
-      <c r="L12" s="10">
-        <f>I12/SUM(I$9:I$12)</f>
-        <v>0.29841269841269841</v>
-      </c>
-      <c r="M12" s="10">
-        <f>J12/SUM(J$9:J$12)</f>
-        <v>0.20294117647058824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>78</v>
-      </c>
-      <c r="D13" s="7">
-        <v>69</v>
-      </c>
-      <c r="E13" s="7">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>153</v>
-      </c>
-      <c r="D14" s="7">
-        <v>108</v>
-      </c>
-      <c r="E14" s="7">
-        <v>118</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>118</v>
-      </c>
-      <c r="E15" s="7">
-        <v>177</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>60</v>
-      </c>
-      <c r="D16" s="7">
-        <v>384</v>
-      </c>
-      <c r="E16" s="7">
-        <v>389</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2030</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2050</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2020</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M16" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="7"/>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <f>SUM(C12,C15:C16)</f>
-        <v>90</v>
-      </c>
-      <c r="I17">
-        <f>SUM(D12,D15:D16)</f>
-        <v>546</v>
-      </c>
-      <c r="J17">
-        <f>SUM(E12,E15:E16)</f>
-        <v>615</v>
-      </c>
-      <c r="K17" s="6">
-        <f>H17/SUM(H$17:H$18)</f>
-        <v>0.18633540372670807</v>
-      </c>
-      <c r="L17" s="6">
-        <f>I17/SUM(I$17:I$18)</f>
-        <v>0.72509960159362552</v>
-      </c>
-      <c r="M17" s="6">
-        <f>J17/SUM(J$17:J$18)</f>
-        <v>0.73476702508960579</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="7"/>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18">
-        <f>SUM(C9:C11,C13)</f>
-        <v>393</v>
-      </c>
-      <c r="I18">
-        <f>SUM(D9:D11,D13)</f>
-        <v>207</v>
-      </c>
-      <c r="J18">
-        <f>SUM(E9:E11,E13)</f>
-        <v>222</v>
-      </c>
-      <c r="K18" s="6">
-        <f>H18/SUM(H$17:H$18)</f>
-        <v>0.81366459627329191</v>
-      </c>
-      <c r="L18" s="6">
-        <f>I18/SUM(I$17:I$18)</f>
-        <v>0.27490039840637448</v>
-      </c>
-      <c r="M18" s="6">
-        <f>J18/SUM(J$17:J$18)</f>
-        <v>0.26523297491039427</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="G20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2030</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2050</v>
-      </c>
-      <c r="K22" s="4">
-        <v>2020</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2030</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23">
-        <f>C16</f>
-        <v>60</v>
-      </c>
-      <c r="I23">
-        <f>D16</f>
-        <v>384</v>
-      </c>
-      <c r="J23">
-        <f>E16</f>
-        <v>389</v>
-      </c>
-      <c r="K23" s="6">
-        <f>H23/SUM(H$23:H$25)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L23" s="6">
-        <f>I23/SUM(I$23:I$25)</f>
-        <v>0.70329670329670335</v>
-      </c>
-      <c r="M23" s="6">
-        <f>J23/SUM(J$23:J$25)</f>
-        <v>0.63252032520325208</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24">
-        <f>C12</f>
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <f>D12</f>
-        <v>44</v>
-      </c>
-      <c r="J24">
-        <f>E12</f>
-        <v>49</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" ref="K24:M25" si="0">H24/SUM(H$23:H$25)</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="0"/>
-        <v>8.0586080586080591E-2</v>
-      </c>
-      <c r="M24" s="6">
-        <f t="shared" si="0"/>
-        <v>7.9674796747967486E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25">
-        <f>C15</f>
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <f>D15</f>
-        <v>118</v>
-      </c>
-      <c r="J25">
-        <f>E15</f>
-        <v>177</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.21611721611721613</v>
-      </c>
-      <c r="M25" s="6">
-        <f t="shared" si="0"/>
-        <v>0.28780487804878047</v>
+      <c r="K38" s="26">
+        <v>2055</v>
+      </c>
+      <c r="L38" s="26">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
+        <v>9.4041235044908286E-2</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0.19875544489630168</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0.23517493229217079</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0.38600636209402522</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0.52098845994441834</v>
+      </c>
+      <c r="J39" s="31">
+        <v>0.65724216697011595</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0.65648081566706651</v>
+      </c>
+      <c r="L39" s="31">
+        <v>0.74110405537417889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
+      <c r="D40" s="31">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E40" s="31">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F40" s="31">
+        <v>9.6974692137267671E-2</v>
+      </c>
+      <c r="G40" s="31">
+        <v>0.23715594352755537</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0.3511315333305714</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0.41745893995374145</v>
+      </c>
+      <c r="J40" s="31">
+        <v>0.44203226671215384</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0.46148047621402866</v>
+      </c>
+      <c r="L40" s="31">
+        <v>0.50590832725411927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0</v>
+      </c>
+      <c r="D41" s="31">
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.19545034357588661</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0.22759059210128213</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0.23359443209375855</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.23513238065241418</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0.22322462476598964</v>
+      </c>
+      <c r="J41" s="31">
+        <v>0.24045024764053377</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0.27864135643363158</v>
+      </c>
+      <c r="L41" s="31">
+        <v>0.28914007666781549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1.5376939060841825E-4</v>
+      </c>
+      <c r="E42" s="31">
+        <v>2.0968106357788581E-3</v>
+      </c>
+      <c r="F42" s="31">
+        <v>3.7324232950562601E-3</v>
+      </c>
+      <c r="G42" s="31">
+        <v>4.980874224401988E-3</v>
+      </c>
+      <c r="H42" s="31">
+        <v>3.1726764386671349E-3</v>
+      </c>
+      <c r="I42" s="31">
+        <v>3.2295440099746402E-5</v>
+      </c>
+      <c r="J42" s="31">
+        <v>4.2133278740787309E-6</v>
+      </c>
+      <c r="K42" s="31">
+        <v>2.8577172778101513E-5</v>
+      </c>
+      <c r="L42" s="31">
+        <v>7.283691725614275E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2110,14 +2870,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>28</v>
+    <row r="1" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -2234,318 +2994,318 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G3" si="0">$I2</f>
-        <v>0.18633540372670807</v>
+        <f t="shared" ref="B2:L2" si="0">C2</f>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="C2">
         <f t="shared" si="0"/>
-        <v>0.18633540372670807</v>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.18633540372670807</v>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.18633540372670807</v>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.18633540372670807</v>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.18633540372670807</v>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="H2">
-        <f>$I2</f>
-        <v>0.18633540372670807</v>
-      </c>
-      <c r="I2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K17,'Data Non-OECD'!K17)</f>
-        <v>0.18633540372670807</v>
+        <f t="shared" si="0"/>
+        <v>4.4936433006002231E-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="J2">
-        <f>$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.24021182351339981</v>
+        <f t="shared" si="0"/>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
-        <v>0.29408824330009153</v>
+        <f t="shared" si="0"/>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
-        <v>0.34796466308678331</v>
+        <f t="shared" si="0"/>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>0.40184108287347503</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="1"/>
-        <v>0.45571750266016675</v>
+        <f>N2</f>
+        <v>4.4936433006002231E-2</v>
+      </c>
+      <c r="N2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B3,'Data NonOECD'!B3)</f>
+        <v>4.4936433006002231E-2</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>0.50959392244685853</v>
+        <f>$N2+($S2-$N2)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(O$1)-COLUMN($N$1))</f>
+        <v>7.2569021591197339E-2</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>0.5634703422335503</v>
+        <f t="shared" ref="P2:R3" si="1">$N2+($S2-$N2)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(P$1)-COLUMN($N$1))</f>
+        <v>0.10020161017639245</v>
       </c>
       <c r="Q2">
         <f t="shared" si="1"/>
-        <v>0.61734676202024197</v>
+        <v>0.12783419876158755</v>
       </c>
       <c r="R2">
         <f t="shared" si="1"/>
-        <v>0.67122318180693374</v>
-      </c>
-      <c r="S2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L17,'Data Non-OECD'!L17)</f>
-        <v>0.72509960159362552</v>
+        <v>0.15546678734678265</v>
+      </c>
+      <c r="S2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C3,'Data NonOECD'!C3)</f>
+        <v>0.18309937593197775</v>
       </c>
       <c r="T2">
-        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.72558297276842454</v>
+        <f>$S2+($X2-$S2)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.21360506016112385</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AL3" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.72606634394322356</v>
+        <f t="shared" ref="U2:W3" si="2">$S2+($X2-$S2)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.24411074439026997</v>
       </c>
       <c r="V2">
         <f t="shared" si="2"/>
-        <v>0.72654971511802258</v>
+        <v>0.27461642861941604</v>
       </c>
       <c r="W2">
         <f t="shared" si="2"/>
-        <v>0.7270330862928216</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="2"/>
-        <v>0.72751645746762061</v>
+        <v>0.30512211284856217</v>
+      </c>
+      <c r="X2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D3,'Data NonOECD'!D3)</f>
+        <v>0.33562779707770829</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="2"/>
-        <v>0.72799982864241963</v>
+        <f>$X2+($AC2-$X2)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(Y$1)-COLUMN($X$1))</f>
+        <v>0.35056115835047152</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="2"/>
-        <v>0.72848319981721865</v>
+        <f t="shared" ref="Z2:AB3" si="3">$X2+($AC2-$X2)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(Z$1)-COLUMN($X$1))</f>
+        <v>0.36549451962323476</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="2"/>
-        <v>0.72896657099201767</v>
+        <f t="shared" si="3"/>
+        <v>0.38042788089599799</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="2"/>
-        <v>0.72944994216681669</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="2"/>
-        <v>0.72993331334161571</v>
+        <f t="shared" si="3"/>
+        <v>0.39536124216876123</v>
+      </c>
+      <c r="AC2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E3,'Data NonOECD'!E3)</f>
+        <v>0.41029460344152446</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
-        <v>0.73041668451641462</v>
+        <f>$AC2+($AH2-$AC2)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(AD$1)-COLUMN($AC$1))</f>
+        <v>0.41536120137553884</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
-        <v>0.73090005569121363</v>
+        <f t="shared" ref="AE2:AG3" si="4">$AC2+($AH2-$AC2)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(AE$1)-COLUMN($AC$1))</f>
+        <v>0.42042779930955321</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
-        <v>0.73138342686601265</v>
+        <f t="shared" si="4"/>
+        <v>0.42549439724356763</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>0.73186679804081167</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>0.73235016921561069</v>
+        <f t="shared" si="4"/>
+        <v>0.43056099517758201</v>
+      </c>
+      <c r="AH2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!F3,'Data NonOECD'!F3)</f>
+        <v>0.43562759311159638</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>0.73283354039040971</v>
+        <f>$AH2+($AM2-$AH2)/(COLUMN($AM$1)-COLUMN($AH$1))*(COLUMN(AI$1)-COLUMN($AH$1))</f>
+        <v>0.42396310011393384</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>0.73331691156520873</v>
+        <f t="shared" ref="AJ2:AL3" si="5">$AH2+($AM2-$AH2)/(COLUMN($AM$1)-COLUMN($AH$1))*(COLUMN(AJ$1)-COLUMN($AH$1))</f>
+        <v>0.41229860711627131</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="2"/>
-        <v>0.73380028274000775</v>
+        <f t="shared" si="5"/>
+        <v>0.40063411411860878</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="2"/>
-        <v>0.73428365391480677</v>
-      </c>
-      <c r="AM2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M17,'Data Non-OECD'!M17)</f>
-        <v>0.73476702508960579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.38896962112094624</v>
+      </c>
+      <c r="AM2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!G3,'Data NonOECD'!G3)</f>
+        <v>0.37730512812328371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.81366459627329191</v>
+        <f t="shared" ref="B3:L3" si="6">C3</f>
+        <v>0.95506356699399775</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.81366459627329191</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.81366459627329191</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.81366459627329191</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.81366459627329191</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.81366459627329191</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="H3">
-        <f>$I3</f>
-        <v>0.81366459627329191</v>
-      </c>
-      <c r="I3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K18,'Data Non-OECD'!K18)</f>
-        <v>0.81366459627329191</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="J3">
-        <f>$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.75978817648660013</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.70591175669990847</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.65203533691321669</v>
+        <f t="shared" si="6"/>
+        <v>0.95506356699399775</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0.59815891712652491</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0.54428249733983325</v>
+        <f>N3</f>
+        <v>0.95506356699399775</v>
+      </c>
+      <c r="N3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B4,'Data NonOECD'!B4)</f>
+        <v>0.95506356699399775</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.49040607755314147</v>
+        <f>$N3+($S3-$N3)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(O$1)-COLUMN($N$1))</f>
+        <v>0.92743097840880262</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.4365296577664497</v>
+        <v>0.89979838982360749</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.38265323797975798</v>
+        <v>0.87216580123841236</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0.32877681819306626</v>
-      </c>
-      <c r="S3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L18,'Data Non-OECD'!L18)</f>
-        <v>0.27490039840637448</v>
+        <v>0.84453321265321735</v>
+      </c>
+      <c r="S3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C4,'Data NonOECD'!C4)</f>
+        <v>0.81690062406802222</v>
       </c>
       <c r="T3">
-        <f>$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.27441702723157546</v>
+        <f>$S3+($X3-$S3)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.78639493983887609</v>
       </c>
       <c r="U3">
         <f t="shared" si="2"/>
-        <v>0.27393365605677644</v>
+        <v>0.75588925560972997</v>
       </c>
       <c r="V3">
         <f t="shared" si="2"/>
-        <v>0.27345028488197742</v>
+        <v>0.72538357138058385</v>
       </c>
       <c r="W3">
         <f t="shared" si="2"/>
-        <v>0.27296691370717846</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="2"/>
-        <v>0.27248354253237944</v>
+        <v>0.69487788715143783</v>
+      </c>
+      <c r="X3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D4,'Data NonOECD'!D4)</f>
+        <v>0.66437220292229171</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
-        <v>0.27200017135758042</v>
+        <f>$X3+($AC3-$X3)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(Y$1)-COLUMN($X$1))</f>
+        <v>0.64943884164952848</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="2"/>
-        <v>0.2715168001827814</v>
+        <f t="shared" si="3"/>
+        <v>0.63450548037676524</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="2"/>
-        <v>0.27103342900798238</v>
+        <f t="shared" si="3"/>
+        <v>0.61957211910400189</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="2"/>
-        <v>0.27055005783318337</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="2"/>
-        <v>0.2700666866583844</v>
+        <f t="shared" si="3"/>
+        <v>0.60463875783123866</v>
+      </c>
+      <c r="AC3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E4,'Data NonOECD'!E4)</f>
+        <v>0.58970539655847543</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="2"/>
-        <v>0.26958331548358538</v>
+        <f>$AC3+($AH3-$AC3)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(AD$1)-COLUMN($AC$1))</f>
+        <v>0.58463879862446111</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="2"/>
-        <v>0.26909994430878637</v>
+        <f t="shared" si="4"/>
+        <v>0.57957220069044679</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="2"/>
-        <v>0.26861657313398735</v>
+        <f t="shared" si="4"/>
+        <v>0.57450560275643237</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="2"/>
-        <v>0.26813320195918833</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="2"/>
-        <v>0.26764983078438931</v>
+        <f t="shared" si="4"/>
+        <v>0.56943900482241805</v>
+      </c>
+      <c r="AH3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!F4,'Data NonOECD'!F4)</f>
+        <v>0.56437240688840373</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="2"/>
-        <v>0.26716645960959029</v>
+        <f>$AH3+($AM3-$AH3)/(COLUMN($AM$1)-COLUMN($AH$1))*(COLUMN(AI$1)-COLUMN($AH$1))</f>
+        <v>0.57603689988606621</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>0.26668308843479133</v>
+        <f t="shared" si="5"/>
+        <v>0.5877013928837288</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>0.26619971725999231</v>
+        <f t="shared" si="5"/>
+        <v>0.59936588588139128</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>0.26571634608519329</v>
-      </c>
-      <c r="AM3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M18,'Data Non-OECD'!M18)</f>
-        <v>0.26523297491039427</v>
+        <f t="shared" si="5"/>
+        <v>0.61103037887905387</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!G4,'Data NonOECD'!G4)</f>
+        <v>0.62269487187671635</v>
       </c>
     </row>
   </sheetData>
@@ -2554,22 +3314,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>28</v>
+    <row r="1" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -2686,323 +3448,323 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G3" si="0">$I2</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" ref="B2:H3" si="0">$I2</f>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>$I2</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K23,'Data Non-OECD'!K23)</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B15,'Data NonOECD'!B15)</f>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.67032967032967028</v>
+        <v>7.509473261780289E-2</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:R3" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
-        <v>0.67399267399267393</v>
+        <v>0.15018946523560578</v>
       </c>
       <c r="L2">
         <f t="shared" si="1"/>
-        <v>0.67765567765567769</v>
+        <v>0.22528419785340867</v>
       </c>
       <c r="M2">
         <f t="shared" si="1"/>
-        <v>0.68131868131868134</v>
+        <v>0.30037893047121156</v>
       </c>
       <c r="N2">
         <f t="shared" si="1"/>
-        <v>0.68498168498168499</v>
+        <v>0.37547366308901442</v>
       </c>
       <c r="O2">
         <f t="shared" si="1"/>
-        <v>0.68864468864468864</v>
+        <v>0.45056839570681734</v>
       </c>
       <c r="P2">
         <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
+        <v>0.52566312832462025</v>
       </c>
       <c r="Q2">
         <f t="shared" si="1"/>
-        <v>0.69597069597069605</v>
+        <v>0.60075786094242312</v>
       </c>
       <c r="R2">
         <f t="shared" si="1"/>
-        <v>0.6996336996336997</v>
-      </c>
-      <c r="S2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L23,'Data Non-OECD'!L23)</f>
-        <v>0.70329670329670335</v>
+        <v>0.67585259356022598</v>
+      </c>
+      <c r="S2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C15,'Data NonOECD'!C15)</f>
+        <v>0.75094732617802884</v>
       </c>
       <c r="T2">
-        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.69975788439203079</v>
+        <f>$S2+($AC2-$S2)/(COLUMN($AC$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.74540287514931758</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AL3" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.69621906548735824</v>
+        <f t="shared" ref="U2:AB2" si="2">$S2+($AC2-$S2)/(COLUMN($AC$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.73985842412060643</v>
       </c>
       <c r="V2">
         <f t="shared" si="2"/>
-        <v>0.69268024658268568</v>
+        <v>0.73431397309189528</v>
       </c>
       <c r="W2">
         <f t="shared" si="2"/>
-        <v>0.68914142767801312</v>
+        <v>0.72876952206318402</v>
       </c>
       <c r="X2">
         <f t="shared" si="2"/>
-        <v>0.68560260877334056</v>
+        <v>0.72322507103447276</v>
       </c>
       <c r="Y2">
         <f t="shared" si="2"/>
-        <v>0.682063789868668</v>
+        <v>0.7176806200057616</v>
       </c>
       <c r="Z2">
         <f t="shared" si="2"/>
-        <v>0.67852497096399544</v>
+        <v>0.71213616897705045</v>
       </c>
       <c r="AA2">
         <f t="shared" si="2"/>
-        <v>0.67498615205932289</v>
+        <v>0.70659171794833919</v>
       </c>
       <c r="AB2">
         <f t="shared" si="2"/>
-        <v>0.67144733315465033</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="2"/>
-        <v>0.66790851424997766</v>
+        <v>0.70104726691962793</v>
+      </c>
+      <c r="AC2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D15,'Data NonOECD'!D15)</f>
+        <v>0.69550281589091678</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
-        <v>0.6643696953453051</v>
+        <f>$S2+($AM2-$AC2)/(COLUMN($AM$1)-COLUMN($AC$1))*(COLUMN(AD$1)-COLUMN($AC$1))</f>
+        <v>0.72447441823518011</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
-        <v>0.66083087644063254</v>
+        <f t="shared" ref="AE2:AL2" si="3">$S2+($AM2-$AC2)/(COLUMN($AM$1)-COLUMN($AC$1))*(COLUMN(AE$1)-COLUMN($AC$1))</f>
+        <v>0.69800151029233137</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
-        <v>0.65729205753595998</v>
+        <f t="shared" si="3"/>
+        <v>0.67152860234948264</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>0.65375323863128743</v>
+        <f t="shared" si="3"/>
+        <v>0.64505569440663402</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>0.65021441972661487</v>
+        <f t="shared" si="3"/>
+        <v>0.61858278646378528</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>0.64667560082194231</v>
+        <f t="shared" si="3"/>
+        <v>0.59210987852093655</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>0.64313678191726975</v>
+        <f t="shared" si="3"/>
+        <v>0.56563697057808782</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="2"/>
-        <v>0.63959796301259719</v>
+        <f t="shared" si="3"/>
+        <v>0.53916406263523919</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="2"/>
-        <v>0.63605914410792463</v>
-      </c>
-      <c r="AM2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M23,'Data Non-OECD'!M23)</f>
-        <v>0.63252032520325208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0.51269115469239046</v>
+      </c>
+      <c r="AM2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E15,'Data NonOECD'!E15)</f>
+        <v>0.43077373646242967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="3">$I3</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="I3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K24,'Data Non-OECD'!K24)</f>
-        <v>0.27777777777777779</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B16,'Data NonOECD'!B16)</f>
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3" si="4">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.25805860805860809</v>
+        <v>8.6911001722361103E-2</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.23833943833943835</v>
+        <v>0.17382200344472221</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0.21862026862026862</v>
+        <v>0.26073300516708331</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>0.19890109890109892</v>
+        <v>0.34764400688944441</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
-        <v>0.17918192918192918</v>
+        <v>0.43455500861180552</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>0.15946275946275945</v>
+        <v>0.52146601033416662</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>0.13974358974358975</v>
+        <v>0.60837701205652772</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>0.12002442002442001</v>
+        <v>0.69528801377888882</v>
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>0.10030525030525028</v>
-      </c>
-      <c r="S3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L24,'Data Non-OECD'!L24)</f>
-        <v>8.0586080586080591E-2</v>
+        <v>0.78219901550124993</v>
+      </c>
+      <c r="S3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C16,'Data NonOECD'!C16)</f>
+        <v>0.86911001722361103</v>
       </c>
       <c r="T3">
-        <f>$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>8.0540516394174935E-2</v>
+        <f t="shared" ref="T3:AB9" si="5">$S3+($AC3-$S3)/(COLUMN($AC$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.85545767515548221</v>
       </c>
       <c r="U3">
-        <f t="shared" si="2"/>
-        <v>8.0494952202269279E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.84180533308735339</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
-        <v>8.0449388010363623E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.82815299101922446</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
-        <v>8.0403823818457967E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.81450064895109564</v>
       </c>
       <c r="X3">
-        <f t="shared" si="2"/>
-        <v>8.0358259626552311E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.80084830688296682</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="2"/>
-        <v>8.0312695434646655E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.787195964814838</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="2"/>
-        <v>8.0267131242740999E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.77354362274670918</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="2"/>
-        <v>8.0221567050835343E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.75989128067858025</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="2"/>
-        <v>8.0176002858929687E-2</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="2"/>
-        <v>8.0130438667024045E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.74623893861045143</v>
+      </c>
+      <c r="AC3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D16,'Data NonOECD'!D16)</f>
+        <v>0.73258659654232261</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="2"/>
-        <v>8.0084874475118389E-2</v>
+        <f t="shared" ref="AD3:AL9" si="6">$S3+($AM3-$AC3)/(COLUMN($AM$1)-COLUMN($AC$1))*(COLUMN(AD$1)-COLUMN($AC$1))</f>
+        <v>0.85487043687996744</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="2"/>
-        <v>8.0039310283212733E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.84063085653632386</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="2"/>
-        <v>7.9993746091307077E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.82639127619268038</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="2"/>
-        <v>7.9948181899401422E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.81215169584903679</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="2"/>
-        <v>7.9902617707495766E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.7979121155053932</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="2"/>
-        <v>7.985705351559011E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.78367253516174962</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>7.9811489323684454E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.76943295481810603</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>7.9765925131778798E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.75519337447446255</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>7.9720360939873142E-2</v>
-      </c>
-      <c r="AM3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M24,'Data Non-OECD'!M24)</f>
-        <v>7.9674796747967486E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.74095379413081897</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E16,'Data NonOECD'!E16)</f>
+        <v>0.59019079310588696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3059,69 +3821,87 @@
         <v>0</v>
       </c>
       <c r="T4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB4">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL4">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3178,69 +3958,87 @@
         <v>0</v>
       </c>
       <c r="T5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3297,69 +4095,87 @@
         <v>0</v>
       </c>
       <c r="T6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL6">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3416,69 +4232,87 @@
         <v>0</v>
       </c>
       <c r="T7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3535,226 +4369,244 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:H9" si="5">$I9</f>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" ref="B9:H9" si="7">$I9</f>
+        <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="I9" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K25,'Data Non-OECD'!K25)</f>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C17,'Data NonOECD'!C17)</f>
+        <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:R9" si="6">$I9+($S9-$I9)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>7.1611721611721607E-2</v>
+        <f t="shared" ref="J9:R9" si="8">$I9+($S9-$I9)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
+        <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
-        <v>8.7667887667887662E-2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="L9">
-        <f t="shared" si="6"/>
-        <v>0.10372405372405373</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="6"/>
-        <v>0.11978021978021978</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="6"/>
-        <v>0.13583638583638585</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
-        <v>0.15189255189255191</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="P9">
-        <f t="shared" si="6"/>
-        <v>0.16794871794871796</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>0.18400488400488402</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
-        <v>0.20006105006105007</v>
-      </c>
-      <c r="S9" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L25,'Data Non-OECD'!L25)</f>
-        <v>0.21611721611721613</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C17,'Data NonOECD'!C17)</f>
+        <v>1</v>
       </c>
       <c r="T9">
-        <f>$S9+($AM9-$S9)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.21970159921379434</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="U9">
-        <f t="shared" ref="U9:AL9" si="7">$S9+($AM9-$S9)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.22328598231037255</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="V9">
-        <f t="shared" si="7"/>
-        <v>0.22687036540695077</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W9">
-        <f t="shared" si="7"/>
-        <v>0.23045474850352898</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="X9">
-        <f t="shared" si="7"/>
-        <v>0.2340391316001072</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>0.23762351469668541</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>0.24120789779326365</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="7"/>
-        <v>0.24479228088984187</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="7"/>
-        <v>0.24837666398642008</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="7"/>
-        <v>0.25196104708299827</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D17,'Data NonOECD'!D17)</f>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="7"/>
-        <v>0.25554543017957654</v>
+        <f t="shared" si="6"/>
+        <v>0.95901907931058872</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="7"/>
-        <v>0.2591298132761547</v>
+        <f t="shared" si="6"/>
+        <v>0.91803815862117744</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="7"/>
-        <v>0.26271419637273297</v>
+        <f t="shared" si="6"/>
+        <v>0.87705723793176604</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="7"/>
-        <v>0.26629857946931118</v>
+        <f t="shared" si="6"/>
+        <v>0.83607631724235476</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
-        <v>0.26988296256588939</v>
+        <f t="shared" si="6"/>
+        <v>0.79509539655294348</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="7"/>
-        <v>0.27346734566246761</v>
+        <f t="shared" si="6"/>
+        <v>0.7541144758635322</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="7"/>
-        <v>0.27705172875904582</v>
+        <f t="shared" si="6"/>
+        <v>0.71313355517412091</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="7"/>
-        <v>0.28063611185562404</v>
+        <f t="shared" si="6"/>
+        <v>0.67215263448470952</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="7"/>
-        <v>0.28422049495220225</v>
-      </c>
-      <c r="AM9" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M25,'Data Non-OECD'!M25)</f>
-        <v>0.28780487804878047</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0.63117171379529835</v>
+      </c>
+      <c r="AM9" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E16,'Data NonOECD'!E16)</f>
+        <v>0.59019079310588696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3871,9 +4723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3990,9 +4842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4109,9 +4961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4228,9 +5080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4344,6 +5196,363 @@
         <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>0</v>
       </c>
     </row>
@@ -4353,22 +5562,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>28</v>
+    <row r="1" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -4485,637 +5696,637 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:G9" si="0">$I2</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" ref="B2:M5" si="0">C2</f>
+        <v>0.29900648346859349</v>
       </c>
       <c r="C2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.29900648346859349</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.29900648346859349</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.29900648346859349</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.29900648346859349</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.29900648346859349</v>
       </c>
       <c r="H2">
-        <f>$I2</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K9,'Data Non-OECD'!K9)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.29900648346859349</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0.29900648346859349</v>
       </c>
       <c r="J2">
-        <f>$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>0.15047619047619046</v>
+        <f t="shared" si="0"/>
+        <v>0.29900648346859349</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:R9" si="1">$I2+($S2-$I2)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(K$1)-COLUMN($I$1))</f>
-        <v>0.15809523809523809</v>
+        <f t="shared" si="0"/>
+        <v>0.29900648346859349</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
-        <v>0.1657142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.29900648346859349</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>0.17333333333333334</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="1"/>
-        <v>0.18095238095238095</v>
+        <f>N2</f>
+        <v>0.29900648346859349</v>
+      </c>
+      <c r="N2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B8,'Data NonOECD'!B8)</f>
+        <v>0.29900648346859349</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
-        <v>0.18857142857142856</v>
+        <f>$N2+($S2-$N2)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(O$1)-COLUMN($N$1))</f>
+        <v>0.29993823271172199</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
-        <v>0.19619047619047619</v>
+        <f t="shared" ref="P2:R2" si="1">$N2+($S2-$N2)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(P$1)-COLUMN($N$1))</f>
+        <v>0.30086998195485054</v>
       </c>
       <c r="Q2">
         <f t="shared" si="1"/>
-        <v>0.2038095238095238</v>
+        <v>0.30180173119797904</v>
       </c>
       <c r="R2">
         <f t="shared" si="1"/>
-        <v>0.21142857142857141</v>
-      </c>
-      <c r="S2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L9,'Data Non-OECD'!L9)</f>
-        <v>0.21904761904761905</v>
+        <v>0.30273348044110759</v>
+      </c>
+      <c r="S2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C8,'Data NonOECD'!C8)</f>
+        <v>0.30366522968423609</v>
       </c>
       <c r="T2">
-        <f>$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.22191876750700279</v>
+        <f>$S2+($X2-$S2)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.28943722399007465</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:AL9" si="2">$S2+($AM2-$S2)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
-        <v>0.22478991596638656</v>
+        <f t="shared" ref="U2:W2" si="2">$S2+($X2-$S2)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(U$1)-COLUMN($S$1))</f>
+        <v>0.27520921829591322</v>
       </c>
       <c r="V2">
         <f t="shared" si="2"/>
-        <v>0.2276610644257703</v>
+        <v>0.26098121260175178</v>
       </c>
       <c r="W2">
         <f t="shared" si="2"/>
-        <v>0.23053221288515408</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="2"/>
-        <v>0.23340336134453782</v>
+        <v>0.24675320690759034</v>
+      </c>
+      <c r="X2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D8,'Data NonOECD'!D8)</f>
+        <v>0.2325252012134289</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="2"/>
-        <v>0.23627450980392156</v>
+        <f>$X2+($AC2-$X2)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(Y$1)-COLUMN($X$1))</f>
+        <v>0.23383171484236578</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="2"/>
-        <v>0.23914565826330533</v>
+        <f t="shared" ref="Z2:AB2" si="3">$X2+($AC2-$X2)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(Z$1)-COLUMN($X$1))</f>
+        <v>0.23513822847130264</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="2"/>
-        <v>0.24201680672268908</v>
+        <f t="shared" si="3"/>
+        <v>0.23644474210023952</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="2"/>
-        <v>0.24488795518207285</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="2"/>
-        <v>0.24775910364145659</v>
+        <f t="shared" si="3"/>
+        <v>0.23775125572917638</v>
+      </c>
+      <c r="AC2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E8,'Data NonOECD'!E8)</f>
+        <v>0.23905776935811326</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
-        <v>0.25063025210084033</v>
+        <f>$AC2+($AH2-$AC2)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(AD$1)-COLUMN($AC$1))</f>
+        <v>0.2404266464853663</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
-        <v>0.25350140056022408</v>
+        <f t="shared" ref="AE2:AG2" si="4">$AC2+($AH2-$AC2)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(AE$1)-COLUMN($AC$1))</f>
+        <v>0.24179552361261933</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
-        <v>0.25637254901960788</v>
+        <f t="shared" si="4"/>
+        <v>0.24316440073987233</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
-        <v>0.25924369747899162</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="2"/>
-        <v>0.26211484593837536</v>
+        <f t="shared" si="4"/>
+        <v>0.24453327786712536</v>
+      </c>
+      <c r="AH2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!F8,'Data NonOECD'!F8)</f>
+        <v>0.2459021549943784</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
-        <v>0.26498599439775911</v>
+        <f>$AH2+($AM2-$AH2)/(COLUMN($AM$1)-COLUMN($AH$1))*(COLUMN(AI$1)-COLUMN($AH$1))</f>
+        <v>0.24844048329642601</v>
       </c>
       <c r="AJ2">
-        <f t="shared" si="2"/>
-        <v>0.2678571428571429</v>
+        <f t="shared" ref="AJ2:AL2" si="5">$AH2+($AM2-$AH2)/(COLUMN($AM$1)-COLUMN($AH$1))*(COLUMN(AJ$1)-COLUMN($AH$1))</f>
+        <v>0.25097881159847363</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="2"/>
-        <v>0.27072829131652665</v>
+        <f t="shared" si="5"/>
+        <v>0.25351713990052127</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="2"/>
-        <v>0.27359943977591039</v>
-      </c>
-      <c r="AM2" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M9,'Data Non-OECD'!M9)</f>
-        <v>0.27647058823529413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0.25605546820256886</v>
+      </c>
+      <c r="AM2" s="7">
+        <f>IF(Region="OECD",'Data OECD'!G8,'Data NonOECD'!G8)</f>
+        <v>0.2585937965046165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>5.4945054945054944E-2</v>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>5.4945054945054944E-2</v>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>5.4945054945054944E-2</v>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>5.4945054945054944E-2</v>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>5.4945054945054944E-2</v>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>5.4945054945054944E-2</v>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H9" si="3">$I3</f>
-        <v>5.4945054945054944E-2</v>
-      </c>
-      <c r="I3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K10,'Data Non-OECD'!K10)</f>
-        <v>5.4945054945054944E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0343727016078286E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">$I3+($S3-$I3)/(COLUMN($S$1)-COLUMN($I$1))*(COLUMN(J$1)-COLUMN($I$1))</f>
-        <v>6.3418803418803418E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>7.1892551892551892E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
-        <v>8.0366300366300367E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>8.8840048840048841E-2</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>9.7313797313797315E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0343727016078286E-2</v>
+      </c>
+      <c r="N3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B9,'Data NonOECD'!B9)</f>
+        <v>7.0343727016078286E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.10578754578754579</v>
+        <f t="shared" ref="O3:R5" si="6">$N3+($S3-$N3)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(O$1)-COLUMN($N$1))</f>
+        <v>9.5225087687258084E-2</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0.11426129426129426</v>
+        <f t="shared" si="6"/>
+        <v>0.12010644835843787</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0.12273504273504274</v>
+        <f t="shared" si="6"/>
+        <v>0.14498780902961766</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0.1312087912087912</v>
-      </c>
-      <c r="S3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L10,'Data Non-OECD'!L10)</f>
-        <v>0.13968253968253969</v>
+        <f t="shared" si="6"/>
+        <v>0.16986916970079746</v>
+      </c>
+      <c r="S3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C9,'Data NonOECD'!C9)</f>
+        <v>0.19475053037197726</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:AI9" si="5">$S3+($AM3-$S3)/(COLUMN($AM$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
-        <v>0.14137488328664799</v>
+        <f t="shared" ref="T3:W5" si="7">$S3+($X3-$S3)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(T$1)-COLUMN($S$1))</f>
+        <v>0.21522115299997868</v>
       </c>
       <c r="U3">
-        <f t="shared" si="5"/>
-        <v>0.14306722689075629</v>
+        <f t="shared" si="7"/>
+        <v>0.2356917756279801</v>
       </c>
       <c r="V3">
-        <f t="shared" si="5"/>
-        <v>0.14475957049486463</v>
+        <f t="shared" si="7"/>
+        <v>0.25616239825598153</v>
       </c>
       <c r="W3">
-        <f t="shared" si="5"/>
-        <v>0.14645191409897293</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="5"/>
-        <v>0.14814425770308123</v>
+        <f t="shared" si="7"/>
+        <v>0.27663302088398295</v>
+      </c>
+      <c r="X3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D9,'Data NonOECD'!D9)</f>
+        <v>0.29710364351198437</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="5"/>
-        <v>0.14983660130718954</v>
+        <f t="shared" ref="Y3:AB5" si="8">$X3+($AC3-$X3)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(Y$1)-COLUMN($X$1))</f>
+        <v>0.31686251428588358</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="5"/>
-        <v>0.15152894491129784</v>
+        <f t="shared" si="8"/>
+        <v>0.33662138505978284</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="5"/>
-        <v>0.15322128851540617</v>
+        <f t="shared" si="8"/>
+        <v>0.35638025583368205</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="5"/>
-        <v>0.15491363211951448</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="5"/>
-        <v>0.15660597572362278</v>
+        <f t="shared" si="8"/>
+        <v>0.37613912660758131</v>
+      </c>
+      <c r="AC3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E9,'Data NonOECD'!E9)</f>
+        <v>0.39589799738148052</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="5"/>
-        <v>0.15829831932773109</v>
+        <f t="shared" ref="AD3:AG5" si="9">$AC3+($AH3-$AC3)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(AD$1)-COLUMN($AC$1))</f>
+        <v>0.40705547147092508</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="5"/>
-        <v>0.15999066293183939</v>
+        <f t="shared" si="9"/>
+        <v>0.4182129455603697</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="5"/>
-        <v>0.16168300653594772</v>
+        <f t="shared" si="9"/>
+        <v>0.42937041964981426</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="5"/>
-        <v>0.16337535014005602</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="5"/>
-        <v>0.16506769374416433</v>
+        <f t="shared" si="9"/>
+        <v>0.44052789373925888</v>
+      </c>
+      <c r="AH3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!F9,'Data NonOECD'!F9)</f>
+        <v>0.45168536782870344</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="5"/>
-        <v>0.16676003734827263</v>
+        <f t="shared" ref="AI3:AL5" si="10">$AH3+($AM3-$AH3)/(COLUMN($AM$1)-COLUMN($AH$1))*(COLUMN(AI$1)-COLUMN($AH$1))</f>
+        <v>0.45592426684495185</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>0.16845238095238096</v>
+        <f t="shared" si="10"/>
+        <v>0.46016316586120026</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>0.17014472455648927</v>
+        <f t="shared" si="10"/>
+        <v>0.46440206487744862</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>0.17183706816059757</v>
-      </c>
-      <c r="AM3" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M10,'Data Non-OECD'!M10)</f>
-        <v>0.17352941176470588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0.46864096389369703</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>IF(Region="OECD",'Data OECD'!G9,'Data NonOECD'!G9)</f>
+        <v>0.47287986290994544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.28021978021978022</v>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.28021978021978022</v>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.28021978021978022</v>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.28021978021978022</v>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.28021978021978022</v>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.28021978021978022</v>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0.28021978021978022</v>
-      </c>
-      <c r="I4" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K11,'Data Non-OECD'!K11)</f>
-        <v>0.28021978021978022</v>
+        <f t="shared" si="0"/>
+        <v>2.5436202178825617E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0.2864835164835165</v>
+        <f t="shared" si="0"/>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.29274725274725277</v>
+        <f t="shared" si="0"/>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
-        <v>0.29901098901098899</v>
+        <f t="shared" si="0"/>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>0.30527472527472527</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.31153846153846154</v>
+        <f t="shared" si="0"/>
+        <v>2.5436202178825617E-3</v>
+      </c>
+      <c r="N4" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B10,'Data NonOECD'!B10)</f>
+        <v>2.5436202178825617E-3</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
-        <v>0.31780219780219782</v>
+        <f t="shared" si="6"/>
+        <v>3.1667133094190725E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
-        <v>0.32406593406593409</v>
+        <f t="shared" si="6"/>
+        <v>6.0790645970498887E-2</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>0.33032967032967031</v>
+        <f t="shared" si="6"/>
+        <v>8.9914158846807049E-2</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
-        <v>0.33659340659340659</v>
-      </c>
-      <c r="S4" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L11,'Data Non-OECD'!L11)</f>
-        <v>0.34285714285714286</v>
+        <f t="shared" si="6"/>
+        <v>0.1190376717231152</v>
+      </c>
+      <c r="S4" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C10,'Data NonOECD'!C10)</f>
+        <v>0.14816118459942337</v>
       </c>
       <c r="T4">
-        <f t="shared" si="5"/>
-        <v>0.3430672268907563</v>
+        <f t="shared" si="7"/>
+        <v>0.16542572613311643</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
-        <v>0.34327731092436975</v>
+        <f t="shared" si="7"/>
+        <v>0.18269026766680951</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
-        <v>0.34348739495798319</v>
+        <f t="shared" si="7"/>
+        <v>0.19995480920050257</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
-        <v>0.34369747899159664</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="2"/>
-        <v>0.34390756302521008</v>
+        <f t="shared" si="7"/>
+        <v>0.21721935073419563</v>
+      </c>
+      <c r="X4" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D10,'Data NonOECD'!D10)</f>
+        <v>0.23448389226788868</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="2"/>
-        <v>0.34411764705882353</v>
+        <f t="shared" si="8"/>
+        <v>0.23107899858736747</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="2"/>
-        <v>0.34432773109243697</v>
+        <f t="shared" si="8"/>
+        <v>0.22767410490684625</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="2"/>
-        <v>0.34453781512605042</v>
+        <f t="shared" si="8"/>
+        <v>0.22426921122632507</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
-        <v>0.34474789915966386</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="2"/>
-        <v>0.34495798319327731</v>
+        <f t="shared" si="8"/>
+        <v>0.22086431754580385</v>
+      </c>
+      <c r="AC4" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E10,'Data NonOECD'!E10)</f>
+        <v>0.21745942386528264</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
-        <v>0.34516806722689075</v>
+        <f t="shared" si="9"/>
+        <v>0.21337495819983762</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="2"/>
-        <v>0.3453781512605042</v>
+        <f t="shared" si="9"/>
+        <v>0.20929049253439261</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="2"/>
-        <v>0.34558823529411764</v>
+        <f t="shared" si="9"/>
+        <v>0.20520602686894759</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="2"/>
-        <v>0.34579831932773109</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="2"/>
-        <v>0.34600840336134453</v>
+        <f t="shared" si="9"/>
+        <v>0.20112156120350258</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>IF(Region="OECD",'Data OECD'!F10,'Data NonOECD'!F10)</f>
+        <v>0.19703709553805757</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="2"/>
-        <v>0.34621848739495797</v>
+        <f t="shared" si="10"/>
+        <v>0.19241344648390779</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="2"/>
-        <v>0.34642857142857142</v>
+        <f t="shared" si="10"/>
+        <v>0.18778979742975802</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="2"/>
-        <v>0.34663865546218486</v>
+        <f t="shared" si="10"/>
+        <v>0.18316614837560821</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="2"/>
-        <v>0.34684873949579831</v>
-      </c>
-      <c r="AM4" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M11,'Data Non-OECD'!M11)</f>
-        <v>0.34705882352941175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0.17854249932145844</v>
+      </c>
+      <c r="AM4" s="7">
+        <f>IF(Region="OECD",'Data OECD'!G10,'Data NonOECD'!G10)</f>
+        <v>0.17391885026730866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.52197802197802201</v>
+        <v>0.62143930688964777</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.52197802197802201</v>
+        <v>0.62143930688964777</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.52197802197802201</v>
+        <v>0.62143930688964777</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.52197802197802201</v>
+        <v>0.62143930688964777</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.52197802197802201</v>
+        <v>0.62143930688964777</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.52197802197802201</v>
+        <v>0.62143930688964777</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0.52197802197802201</v>
-      </c>
-      <c r="I5" s="11">
-        <f>IF(Region="OECD",'Data OECD'!K12,'Data Non-OECD'!K12)</f>
-        <v>0.52197802197802201</v>
+        <f t="shared" si="0"/>
+        <v>0.62143930688964777</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.62143930688964777</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0.49962148962148967</v>
+        <f t="shared" si="0"/>
+        <v>0.62143930688964777</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>0.47726495726495727</v>
+        <f t="shared" si="0"/>
+        <v>0.62143930688964777</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>0.45490842490842492</v>
+        <f t="shared" si="0"/>
+        <v>0.62143930688964777</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.43255189255189258</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.41019536019536018</v>
+        <f t="shared" si="0"/>
+        <v>0.62143930688964777</v>
+      </c>
+      <c r="N5" s="7">
+        <f>IF(Region="OECD",'Data OECD'!B11,'Data NonOECD'!B11)</f>
+        <v>0.62143930688964777</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0.38783882783882784</v>
+        <f t="shared" si="6"/>
+        <v>0.56669555230131097</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
-        <v>0.36548229548229549</v>
+        <f t="shared" si="6"/>
+        <v>0.51195179771297417</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>0.34312576312576315</v>
+        <f t="shared" si="6"/>
+        <v>0.45720804312463742</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
-        <v>0.32076923076923075</v>
-      </c>
-      <c r="S5" s="11">
-        <f>IF(Region="OECD",'Data OECD'!L12,'Data Non-OECD'!L12)</f>
-        <v>0.29841269841269841</v>
+        <f t="shared" si="6"/>
+        <v>0.40246428853630067</v>
+      </c>
+      <c r="S5" s="7">
+        <f>IF(Region="OECD",'Data OECD'!C11,'Data NonOECD'!C11)</f>
+        <v>0.34772053394796387</v>
       </c>
       <c r="T5">
-        <f t="shared" si="5"/>
-        <v>0.29363912231559292</v>
+        <f t="shared" si="7"/>
+        <v>0.32436892888083985</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
-        <v>0.28886554621848737</v>
+        <f t="shared" si="7"/>
+        <v>0.30101732381371582</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
-        <v>0.28409197012138188</v>
+        <f t="shared" si="7"/>
+        <v>0.27766571874659185</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
-        <v>0.27931839402427638</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="2"/>
-        <v>0.27454481792717089</v>
+        <f t="shared" si="7"/>
+        <v>0.25431411367946777</v>
+      </c>
+      <c r="X5" s="7">
+        <f>IF(Region="OECD",'Data OECD'!D11,'Data NonOECD'!D11)</f>
+        <v>0.23096250861234377</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
-        <v>0.26977124183006534</v>
+        <f t="shared" si="8"/>
+        <v>0.21389399444163301</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="2"/>
-        <v>0.26499766573295985</v>
+        <f t="shared" si="8"/>
+        <v>0.19682548027092228</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="2"/>
-        <v>0.26022408963585436</v>
+        <f t="shared" si="8"/>
+        <v>0.17975696610021152</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
-        <v>0.25545051353874881</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="2"/>
-        <v>0.25067693744164332</v>
+        <f t="shared" si="8"/>
+        <v>0.16268845192950077</v>
+      </c>
+      <c r="AC5" s="7">
+        <f>IF(Region="OECD",'Data OECD'!E11,'Data NonOECD'!E11)</f>
+        <v>0.14561993775879004</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="2"/>
-        <v>0.24590336134453783</v>
+        <f t="shared" si="9"/>
+        <v>0.13756797789978531</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="2"/>
-        <v>0.24112978524743231</v>
+        <f t="shared" si="9"/>
+        <v>0.12951601804078058</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="2"/>
-        <v>0.23635620915032679</v>
+        <f t="shared" si="9"/>
+        <v>0.12146405818177587</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="2"/>
-        <v>0.2315826330532213</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="2"/>
-        <v>0.22680905695611578</v>
+        <f t="shared" si="9"/>
+        <v>0.11341209832277115</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>IF(Region="OECD",'Data OECD'!F11,'Data NonOECD'!F11)</f>
+        <v>0.10536013846376642</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="2"/>
-        <v>0.22203548085901026</v>
+        <f t="shared" si="10"/>
+        <v>0.1032092772854763</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="2"/>
-        <v>0.21726190476190477</v>
+        <f t="shared" si="10"/>
+        <v>0.10105841610718619</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="2"/>
-        <v>0.21248832866479928</v>
+        <f t="shared" si="10"/>
+        <v>9.8907554928896066E-2</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="2"/>
-        <v>0.20771475256769373</v>
-      </c>
-      <c r="AM5" s="11">
-        <f>IF(Region="OECD",'Data OECD'!M12,'Data Non-OECD'!M12)</f>
-        <v>0.20294117647058824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>9.6756693750605957E-2</v>
+      </c>
+      <c r="AM5" s="7">
+        <f>IF(Region="OECD",'Data OECD'!G11,'Data NonOECD'!G11)</f>
+        <v>9.4605832572315834E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5232,9 +6443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5351,9 +6562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5470,9 +6681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5589,18 +6800,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
